--- a/parabolic/2025/08/01/parabolic.xlsx
+++ b/parabolic/2025/08/01/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>432</v>
+        <v>986.7000122070312</v>
       </c>
       <c r="D2" t="n">
-        <v>2770200</v>
+        <v>201100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>2181</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>9645600</v>
+        <v>3529100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,19 +519,19 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D4" t="n">
-        <v>122400</v>
+        <v>3780400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>617</v>
+        <v>132</v>
       </c>
       <c r="D5" t="n">
-        <v>276000</v>
+        <v>13646900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,19 +565,19 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>3195</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>455</v>
       </c>
       <c r="D6" t="n">
-        <v>342200</v>
+        <v>122400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>892.2000122070312</v>
+        <v>615</v>
       </c>
       <c r="D7" t="n">
-        <v>1377800</v>
+        <v>496200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>516</v>
+        <v>112</v>
       </c>
       <c r="D8" t="n">
-        <v>108700</v>
+        <v>498000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6181</t>
+          <t>5016</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>137</v>
+        <v>891.5</v>
       </c>
       <c r="D9" t="n">
-        <v>121800</v>
+        <v>2529700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>148</v>
+        <v>517</v>
       </c>
       <c r="D10" t="n">
-        <v>1054100</v>
+        <v>123000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>6181</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>462</v>
+        <v>137</v>
       </c>
       <c r="D11" t="n">
-        <v>137100</v>
+        <v>124600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>549</v>
+        <v>150</v>
       </c>
       <c r="D12" t="n">
-        <v>545400</v>
+        <v>1542200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9432</t>
+          <t>7868</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>154.3000030517578</v>
+        <v>464</v>
       </c>
       <c r="D13" t="n">
-        <v>47749500</v>
+        <v>180200</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>8616</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,62 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>221.1000061035156</v>
+        <v>558</v>
       </c>
       <c r="D14" t="n">
-        <v>23894000</v>
+        <v>853400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>9432</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>154.8999938964844</v>
+      </c>
+      <c r="D15" t="n">
+        <v>93254300</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>9434</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>222</v>
+      </c>
+      <c r="D16" t="n">
+        <v>36997800</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/01/parabolic.xlsx
+++ b/parabolic/2025/08/01/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>986.7000122070312</v>
+        <v>854</v>
       </c>
       <c r="D2" t="n">
-        <v>201100</v>
+        <v>156100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>296.3999938964844</v>
+        <v>988</v>
       </c>
       <c r="D3" t="n">
-        <v>3529100</v>
+        <v>276200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2181</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>438</v>
+        <v>295.7999877929688</v>
       </c>
       <c r="D4" t="n">
-        <v>3780400</v>
+        <v>4743700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D5" t="n">
-        <v>13646900</v>
+        <v>406800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,19 +565,19 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D6" t="n">
-        <v>122400</v>
+        <v>4123500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>615</v>
+        <v>130</v>
       </c>
       <c r="D7" t="n">
-        <v>496200</v>
+        <v>16698300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,19 +611,19 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>3195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>112</v>
+        <v>455</v>
       </c>
       <c r="D8" t="n">
-        <v>498000</v>
+        <v>122400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>891.5</v>
+        <v>198</v>
       </c>
       <c r="D9" t="n">
-        <v>2529700</v>
+        <v>104700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>517</v>
+        <v>637</v>
       </c>
       <c r="D10" t="n">
-        <v>123000</v>
+        <v>100800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6181</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>137</v>
+        <v>614</v>
       </c>
       <c r="D11" t="n">
-        <v>124600</v>
+        <v>619800</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D12" t="n">
-        <v>1542200</v>
+        <v>558600</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>5016</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>464</v>
+        <v>884.0999755859375</v>
       </c>
       <c r="D13" t="n">
-        <v>180200</v>
+        <v>3957300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="D14" t="n">
-        <v>853400</v>
+        <v>141200</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>9432</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>154.8999938964844</v>
+        <v>756</v>
       </c>
       <c r="D15" t="n">
-        <v>93254300</v>
+        <v>116500</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>6181</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,16 +804,200 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="D16" t="n">
-        <v>36997800</v>
+        <v>165800</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>363</v>
+      </c>
+      <c r="D17" t="n">
+        <v>210700</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7352</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>882</v>
+      </c>
+      <c r="D18" t="n">
+        <v>137600</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>7610</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>151</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1911300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>462</v>
+      </c>
+      <c r="D20" t="n">
+        <v>315400</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>7883</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>350</v>
+      </c>
+      <c r="D21" t="n">
+        <v>119100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>8616</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>556</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1061100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>9432</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>117899100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>9434</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>224.3000030517578</v>
+      </c>
+      <c r="D24" t="n">
+        <v>52841700</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/01/parabolic.xlsx
+++ b/parabolic/2025/08/01/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D2" t="n">
-        <v>156100</v>
+        <v>189500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>988</v>
+        <v>988.5</v>
       </c>
       <c r="D3" t="n">
-        <v>276200</v>
+        <v>532200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>295.7999877929688</v>
+        <v>478</v>
       </c>
       <c r="D4" t="n">
-        <v>4743700</v>
+        <v>287600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>2181</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>118</v>
+        <v>296.7999877929688</v>
       </c>
       <c r="D5" t="n">
-        <v>406800</v>
+        <v>7980900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>437</v>
+        <v>117</v>
       </c>
       <c r="D6" t="n">
-        <v>4123500</v>
+        <v>598600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="D7" t="n">
-        <v>16698300</v>
+        <v>4862500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,19 +611,19 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>455</v>
+        <v>124</v>
       </c>
       <c r="D8" t="n">
-        <v>122400</v>
+        <v>19050000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D9" t="n">
-        <v>104700</v>
+        <v>141800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D10" t="n">
-        <v>100800</v>
+        <v>118300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D11" t="n">
-        <v>619800</v>
+        <v>860200</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="D12" t="n">
-        <v>558600</v>
+        <v>2753400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>4881</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>884.0999755859375</v>
+        <v>111</v>
       </c>
       <c r="D13" t="n">
-        <v>3957300</v>
+        <v>592100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6040</t>
+          <t>5016</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>514</v>
+        <v>884.5999755859375</v>
       </c>
       <c r="D14" t="n">
-        <v>141200</v>
+        <v>6361300</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6140</t>
+          <t>5932</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>756</v>
+        <v>626</v>
       </c>
       <c r="D15" t="n">
-        <v>116500</v>
+        <v>124300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6181</t>
+          <t>6040</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>138</v>
+        <v>511</v>
       </c>
       <c r="D16" t="n">
-        <v>165800</v>
+        <v>172600</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>363</v>
+        <v>757</v>
       </c>
       <c r="D17" t="n">
-        <v>210700</v>
+        <v>143200</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7352</t>
+          <t>6181</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>882</v>
+        <v>136</v>
       </c>
       <c r="D18" t="n">
-        <v>137600</v>
+        <v>205900</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>6418</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>151</v>
+        <v>973</v>
       </c>
       <c r="D19" t="n">
-        <v>1911300</v>
+        <v>101900</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>462</v>
+        <v>363</v>
       </c>
       <c r="D20" t="n">
-        <v>315400</v>
+        <v>264400</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>7883</t>
+          <t>7352</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>350</v>
+        <v>894</v>
       </c>
       <c r="D21" t="n">
-        <v>119100</v>
+        <v>189900</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>8616</t>
+          <t>7412</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>556</v>
+        <v>679</v>
       </c>
       <c r="D22" t="n">
-        <v>1061100</v>
+        <v>175000</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>9432</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>155.5</v>
+        <v>151</v>
       </c>
       <c r="D23" t="n">
-        <v>117899100</v>
+        <v>2041300</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>7709</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,16 +988,154 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>224.3000030517578</v>
+        <v>201</v>
       </c>
       <c r="D24" t="n">
-        <v>52841700</v>
+        <v>134100</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>460</v>
+      </c>
+      <c r="D25" t="n">
+        <v>488300</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>7883</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>352</v>
+      </c>
+      <c r="D26" t="n">
+        <v>128400</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>8291</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>509</v>
+      </c>
+      <c r="D27" t="n">
+        <v>119800</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>8616</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>559</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1442700</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>9432</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>155.8999938964844</v>
+      </c>
+      <c r="D29" t="n">
+        <v>158919600</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>9434</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>223.8999938964844</v>
+      </c>
+      <c r="D30" t="n">
+        <v>78890300</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
